--- a/StructureDefinition-bc-service-period-extension.xlsx
+++ b/StructureDefinition-bc-service-period-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:10:20+00:00</t>
+    <t>2023-06-12T22:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
